--- a/Files/LFS_Col_name.xlsx
+++ b/Files/LFS_Col_name.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali\Dropbox\LFS Cleaning\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali\Dropbox\LFS Cleaning\GitHub\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8709" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8709" uniqueCount="352">
   <si>
     <t>PKEY</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>IW_Season</t>
+  </si>
+  <si>
+    <t>Pkey</t>
   </si>
 </sst>
 </file>
@@ -10642,8 +10645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10724,7 +10727,7 @@
         <v>342</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>201</v>
